--- a/матметоды+анализданных/bayes2/data.xlsx
+++ b/матметоды+анализданных/bayes2/data.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -344,7 +344,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B1">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C1">
         <v>0.35714285714285715</v>
@@ -352,10 +352,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.44444444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
         <v>0.2857142857142857</v>
@@ -363,10 +363,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
         <v>0.35714285714285715</v>

--- a/матметоды+анализданных/bayes2/data.xlsx
+++ b/матметоды+анализданных/bayes2/data.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
